--- a/data/discussion/1_appearance.xlsx
+++ b/data/discussion/1_appearance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D954A1-BDF2-4273-B561-9F913ABDC001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15ABD09-67DE-4C70-BA22-58D7CDF40840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="673">
   <si>
     <t>old notes</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>varying conditions (use of 3D laser, pointclouds 3D &gt; 2D images, 3D geometric verification to reject false loops, speed normalization algorithm to reduce influence of UGV speed)</t>
-  </si>
-  <si>
-    <t>visual varying conditions (modified VGG16 to extract img descriptors + boost matching img sequences for visual place recog)</t>
   </si>
   <si>
     <t>visual varying conditions (multi experience localization with temporal + spatio information using priveliged factors)</t>
@@ -2019,21 +2016,9 @@
     <t>handcrafted features</t>
   </si>
   <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>laser point cloud</t>
-  </si>
-  <si>
-    <t>illumination invariance</t>
-  </si>
-  <si>
     <t>neural networks</t>
   </si>
   <si>
-    <t>variant / invariant classification (or stable / non stable)</t>
-  </si>
-  <si>
     <t>semantic segmentation</t>
   </si>
   <si>
@@ -2070,9 +2055,6 @@
     <t>experience map (concept different than RatSLAM)</t>
   </si>
   <si>
-    <t>FAB-MAP + RatSLAM</t>
-  </si>
-  <si>
     <t>camera + laser 3D</t>
   </si>
   <si>
@@ -2118,9 +2100,6 @@
     <t>Robust Multimodal Sequence-based loop closure recognition (ROMS): loop detection incorporating temporal sequence img frames</t>
   </si>
   <si>
-    <t>image transformation</t>
-  </si>
-  <si>
     <t>combination of FABMAP (lighting invariant association, BoW) with RatSLAM</t>
   </si>
   <si>
@@ -2128,6 +2107,30 @@
   </si>
   <si>
     <t>graph-based segmentation method used to decompose the image into a set of components with strong boundaries between each other</t>
+  </si>
+  <si>
+    <t>visual features</t>
+  </si>
+  <si>
+    <t>NN-based features</t>
+  </si>
+  <si>
+    <t>map consistency</t>
+  </si>
+  <si>
+    <t>illumination invariant transformation</t>
+  </si>
+  <si>
+    <t>LDB descriptor using gradient comparisons for higher descriptiveness</t>
+  </si>
+  <si>
+    <t>environment structure features</t>
+  </si>
+  <si>
+    <t>, given the su</t>
+  </si>
+  <si>
+    <t>temporal consistency to advance matches that persist on time</t>
   </si>
 </sst>
 </file>
@@ -2162,12 +2165,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2182,7 +2197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2194,9 +2209,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2206,10 +2218,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2492,7 +2513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="BT8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="BW9" sqref="BW9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2519,7 +2542,7 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2768,7 +2791,7 @@
         <v>116</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>117</v>
@@ -2825,142 +2848,142 @@
         <v>89</v>
       </c>
       <c r="AF2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>94</v>
       </c>
       <c r="AL2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="BG2" s="3" t="s">
         <v>100</v>
       </c>
       <c r="BH2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BN2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BO2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BP2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BS2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BV2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:77" ht="112.5" x14ac:dyDescent="0.25">
@@ -2968,1321 +2991,1321 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AK3" s="3" t="s">
         <v>95</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AS3" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AT3" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="AT3" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="AU3" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BG3" s="3" t="s">
         <v>101</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:77" ht="225" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>91</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>96</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BG4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BT4" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="BW4" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BY4" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="180" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="AB5" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>92</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>97</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AX5" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AY5" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BA5" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BC5" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BG5" s="3" t="s">
         <v>103</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BI5" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BJ5" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BL5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BM5" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BN5" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BO5" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BP5" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BQ5" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BR5" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BS5" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="BT5" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="BU5" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BV5" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BW5" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="180" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>93</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BF6" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="BG6" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BQ6" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BT6" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="BU6" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BV6" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BW6" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>99</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BG7" s="3" t="s">
         <v>105</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BJ7" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="BO7" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BR7" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BU7" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BW7" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="123.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AJ8" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK8" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="AK8" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="AL8" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="BG8" s="3" t="s">
         <v>106</v>
       </c>
       <c r="BI8" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="BP8" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BU8" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BW8" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="112.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="BK9" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="BU9" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BW9" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="135" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BU10" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BW10" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BU11" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="101.25" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:77" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4293,22 +4316,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC269FE-88F9-46C2-8712-980222C8BB1E}">
-  <dimension ref="A1:P179"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>252</v>
+      <c r="A1" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -4316,1377 +4339,1164 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="F10" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="F47" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>61</v>
+      <c r="A66" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>537</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>72</v>
+      <c r="A67" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>642</v>
+      <c r="A75" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>16</v>
+      <c r="A76" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>292</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>73</v>
+      <c r="A77" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>607</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
+      <c r="A78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>668</v>
+        <v>31</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>51</v>
+      <c r="A80" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>489</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
+      <c r="A81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>648</v>
+      <c r="A82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>87</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>261</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>95</v>
+      <c r="A86" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>426</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>472</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>527</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>555</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
+      <c r="A91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>643</v>
+      <c r="A92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>190</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>295</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="A95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>347</v>
+      <c r="A96" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="F122" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
+      <c r="F141" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="F147" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="F148" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="4"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="4"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="4"/>
-    </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>661</v>
-      </c>
+      <c r="A161" s="4"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>662</v>
+      <c r="A162" s="4" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
-        <v>13</v>
+      <c r="A163" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>269</v>
+        <v>648</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>653</v>
-      </c>
+      <c r="A165" s="4"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>654</v>
-      </c>
+      <c r="A167" s="4"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>654</v>
-      </c>
+      <c r="A168" s="4"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
@@ -5705,21 +5515,6 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5740,7 +5535,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5748,7 +5543,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5756,7 +5551,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5764,7 +5559,7 @@
         <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5772,7 +5567,7 @@
         <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5780,7 +5575,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5788,7 +5583,7 @@
         <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5796,7 +5591,7 @@
         <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5804,7 +5599,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5812,27 +5607,27 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="4"/>
@@ -5840,11 +5635,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="4"/>
@@ -5852,11 +5647,11 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="4"/>
@@ -5864,11 +5659,11 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="4"/>
@@ -5876,11 +5671,11 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="4"/>
@@ -5888,11 +5683,11 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="4"/>
@@ -5900,11 +5695,11 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="4"/>
@@ -5912,11 +5707,11 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="4"/>
@@ -5924,11 +5719,11 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="4"/>
@@ -5936,11 +5731,11 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -5948,7 +5743,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5956,7 +5751,7 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="4"/>
@@ -5964,11 +5759,11 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="4"/>
@@ -5976,12 +5771,12 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5989,7 +5784,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -5997,7 +5792,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -6005,7 +5800,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -6013,7 +5808,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6021,7 +5816,7 @@
         <v>34</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6029,12 +5824,12 @@
         <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6042,7 +5837,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6050,12 +5845,12 @@
         <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6063,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -6071,7 +5866,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6079,7 +5874,7 @@
         <v>23</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6087,7 +5882,7 @@
         <v>26</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6095,7 +5890,7 @@
         <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6103,7 +5898,7 @@
         <v>34</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6111,7 +5906,7 @@
         <v>40</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6119,12 +5914,12 @@
         <v>54</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -6140,7 +5935,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6164,7 +5959,7 @@
         <v>41</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -6172,7 +5967,7 @@
         <v>47</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -6180,7 +5975,7 @@
         <v>59</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -6188,15 +5983,15 @@
         <v>63</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>338</v>
+      <c r="A60" s="5" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -6204,7 +5999,7 @@
         <v>30</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -6212,7 +6007,7 @@
         <v>33</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -6220,7 +6015,7 @@
         <v>49</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -6228,7 +6023,7 @@
         <v>52</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -6236,7 +6031,7 @@
         <v>53</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -6244,7 +6039,7 @@
         <v>58</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -6252,7 +6047,7 @@
         <v>61</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -6260,7 +6055,7 @@
         <v>75</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -6268,12 +6063,12 @@
         <v>77</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -6281,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -6289,7 +6084,7 @@
         <v>5</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -6297,7 +6092,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -6305,7 +6100,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -6313,7 +6108,7 @@
         <v>9</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -6321,7 +6116,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -6329,7 +6124,7 @@
         <v>15</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -6337,7 +6132,7 @@
         <v>17</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -6345,7 +6140,7 @@
         <v>18</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -6353,7 +6148,7 @@
         <v>21</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -6361,7 +6156,7 @@
         <v>29</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -6369,7 +6164,7 @@
         <v>35</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -6377,7 +6172,7 @@
         <v>38</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -6385,7 +6180,7 @@
         <v>41</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -6393,7 +6188,7 @@
         <v>44</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -6401,7 +6196,7 @@
         <v>45</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -6409,7 +6204,7 @@
         <v>18</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -6421,7 +6216,7 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6433,31 +6228,31 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="6" t="s">
-        <v>588</v>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="6" t="s">
-        <v>595</v>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -6465,390 +6260,390 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>279</v>
+      <c r="A135" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>279</v>
+      <c r="A139" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
+      <c r="A141" s="7"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>279</v>
+      <c r="A148" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/data/discussion/1_appearance.xlsx
+++ b/data/discussion/1_appearance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15ABD09-67DE-4C70-BA22-58D7CDF40840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761456B-CF6F-44CC-A8E6-3AE2DCFE0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="666">
   <si>
     <t>old notes</t>
   </si>
@@ -2025,18 +2025,9 @@
     <t>disentanglement of domain related VS non-related</t>
   </si>
   <si>
-    <t>predict changes</t>
-  </si>
-  <si>
     <t>multi-modality</t>
   </si>
   <si>
-    <t>geometric verification / constraints</t>
-  </si>
-  <si>
-    <t>graph embedding</t>
-  </si>
-  <si>
     <t>sequential matching / temporal consistency</t>
   </si>
   <si>
@@ -2091,9 +2082,6 @@
     <t>SeqSLAM + VO</t>
   </si>
   <si>
-    <t>temporally smoothed places &gt; take block of imgs that DBSCAN identifies as contiguous place + chioose most representative one</t>
-  </si>
-  <si>
     <t>places considered as image sequences given better performance in long-term and large-scale environ</t>
   </si>
   <si>
@@ -2103,21 +2091,12 @@
     <t>combination of FABMAP (lighting invariant association, BoW) with RatSLAM</t>
   </si>
   <si>
-    <t>geometry verification to reject false positive SVM matches based on epipolar geometry</t>
-  </si>
-  <si>
-    <t>graph-based segmentation method used to decompose the image into a set of components with strong boundaries between each other</t>
-  </si>
-  <si>
     <t>visual features</t>
   </si>
   <si>
     <t>NN-based features</t>
   </si>
   <si>
-    <t>map consistency</t>
-  </si>
-  <si>
     <t>illumination invariant transformation</t>
   </si>
   <si>
@@ -2127,10 +2106,10 @@
     <t>environment structure features</t>
   </si>
   <si>
-    <t>, given the su</t>
-  </si>
-  <si>
-    <t>temporal consistency to advance matches that persist on time</t>
+    <t>predictors variables to score the different features</t>
+  </si>
+  <si>
+    <t>visual varying conditions (modified VGG16 to extract img descriptors + boost matching img sequences for visual place recog), computational performance (transofrm CNN features into binry to reduce complexity)</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2175,12 +2154,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,7 +2170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2227,9 +2200,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2513,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY15"/>
   <sheetViews>
-    <sheetView topLeftCell="BT8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="BW9" sqref="BW9"/>
+    <sheetView topLeftCell="BW3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="BX4" sqref="BX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2848,7 +2818,7 @@
         <v>89</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>134</v>
@@ -4316,9 +4286,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC269FE-88F9-46C2-8712-980222C8BB1E}">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4343,7 +4313,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4351,7 +4321,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4359,7 +4329,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4375,7 +4345,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4407,7 +4377,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4448,7 +4418,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4477,415 +4447,423 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>669</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+        <v>24</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>527</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>670</v>
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>199</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="A30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>320</v>
+      <c r="A31" s="8" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>397</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>455</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5" t="s">
-        <v>587</v>
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>260</v>
+      <c r="A77" s="10" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -4893,7 +4871,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -4901,7 +4879,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -4909,7 +4887,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -4917,55 +4895,55 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-    </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>638</v>
-      </c>
+      <c r="A86" s="8"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -4973,7 +4951,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -4981,7 +4959,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -4989,532 +4967,354 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>34</v>
+      <c r="A92" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>40</v>
+      <c r="A93" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>418</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="9"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+      <c r="F116" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+      <c r="F122" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F123" s="1" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>660</v>
-      </c>
+      <c r="A124" s="8"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>532</v>
+      <c r="A125" s="8" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>68</v>
+      <c r="A126" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>401</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>672</v>
-      </c>
+      <c r="A127" s="8"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
+      <c r="A128" s="8" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>642</v>
+      <c r="A129" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="8"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
-        <v>37</v>
+      <c r="A133" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>651</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
-        <v>36</v>
+      <c r="A134" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>651</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>45</v>
+      <c r="A135" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="A136" s="8"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>651</v>
+      <c r="A137" s="8" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>60</v>
+      <c r="A138" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="A139" s="4"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="A140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="A141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="A142" s="4"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="A143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="4"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="4"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="4"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="4"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="4"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="4"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="4"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="4"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="4"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="4"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="4"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="4"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/discussion/1_appearance.xlsx
+++ b/data/discussion/1_appearance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761456B-CF6F-44CC-A8E6-3AE2DCFE0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B76969-FFA2-4C05-903B-EAB69DEBB603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="2505" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -2483,17 +2483,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY15"/>
   <sheetViews>
-    <sheetView topLeftCell="BW3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="BX4" sqref="BX4"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="20.7109375" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" s="2" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" ht="153" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2954,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:77" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3187,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:77" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" ht="173.4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>177</v>
       </c>
@@ -3419,7 +3417,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:77" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" ht="153" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -3640,7 +3638,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="6" spans="1:77" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>179</v>
       </c>
@@ -3846,7 +3844,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="7" spans="1:77" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>180</v>
       </c>
@@ -4010,7 +4008,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:77" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>181</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="9" spans="1:77" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>182</v>
       </c>
@@ -4182,7 +4180,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="10" spans="1:77" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" ht="102" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>183</v>
       </c>
@@ -4214,7 +4212,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="11" spans="1:77" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>184</v>
       </c>
@@ -4237,7 +4235,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:77" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77" ht="51" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>185</v>
       </c>
@@ -4254,7 +4252,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:77" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:77" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>186</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:77" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:77" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>187</v>
       </c>
@@ -4273,7 +4271,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:77" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>188</v>
       </c>
@@ -4290,9 +4288,9 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5328,9 +5326,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
